--- a/pkg.xlsx
+++ b/pkg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D6CB7-B279-439C-A8F7-24D465AA640F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D7526C-E436-4626-8F02-641E5511A8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SF_sales" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="191">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -687,7 +687,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table11" displayName="Table11" ref="A1:J55" totalsRowShown="0">
-  <autoFilter ref="A1:J55" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A1:J55" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TestCaseID"/>
@@ -991,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -1938,7 +1944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2005,8 +2013,14 @@
       <c r="H2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>118</v>
       </c>
@@ -2017,7 +2031,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>121</v>
       </c>
@@ -2028,7 +2042,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>124</v>
       </c>
@@ -2039,7 +2053,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>127</v>
       </c>
@@ -2050,7 +2064,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>130</v>
       </c>
@@ -2061,7 +2075,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>133</v>
       </c>
@@ -2072,7 +2086,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>136</v>
       </c>
@@ -2083,7 +2097,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>139</v>
       </c>
@@ -2113,8 +2127,11 @@
       <c r="H11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>118</v>
       </c>
@@ -2125,7 +2142,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>121</v>
       </c>
@@ -2136,7 +2153,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>124</v>
       </c>
@@ -2147,7 +2164,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>127</v>
       </c>
@@ -2158,7 +2175,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>130</v>
       </c>
@@ -2169,7 +2186,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>133</v>
       </c>
@@ -2180,7 +2197,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -2199,8 +2216,11 @@
       <c r="H18" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>118</v>
       </c>
@@ -2211,7 +2231,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>121</v>
       </c>
@@ -2222,7 +2242,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>124</v>
       </c>
@@ -2233,7 +2253,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>127</v>
       </c>
@@ -2244,7 +2264,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>130</v>
       </c>
@@ -2255,7 +2275,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>133</v>
       </c>
@@ -2266,7 +2286,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>136</v>
       </c>
@@ -2277,7 +2297,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>139</v>
       </c>
@@ -2288,7 +2308,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2307,8 +2327,11 @@
       <c r="H27" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>118</v>
       </c>
@@ -2319,7 +2342,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>121</v>
       </c>
@@ -2330,7 +2353,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>124</v>
       </c>
@@ -2341,7 +2364,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>127</v>
       </c>
@@ -2352,7 +2375,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>130</v>
       </c>
@@ -2363,7 +2386,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>133</v>
       </c>
@@ -2374,7 +2397,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>136</v>
       </c>
@@ -2385,7 +2408,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -2404,8 +2427,11 @@
       <c r="H35" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>118</v>
       </c>
@@ -2416,7 +2442,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>121</v>
       </c>
@@ -2427,7 +2453,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>124</v>
       </c>
@@ -2438,7 +2464,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>127</v>
       </c>
@@ -2449,7 +2475,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>130</v>
       </c>
@@ -2460,7 +2486,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -2479,8 +2505,11 @@
       <c r="H41" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>118</v>
       </c>
@@ -2491,7 +2520,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>121</v>
       </c>
@@ -2502,7 +2531,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>124</v>
       </c>
@@ -2513,7 +2542,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>127</v>
       </c>
@@ -2524,7 +2553,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>130</v>
       </c>
@@ -2535,7 +2564,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>133</v>
       </c>
@@ -2546,7 +2575,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>136</v>
       </c>
@@ -2557,7 +2586,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -2576,8 +2605,11 @@
       <c r="H49" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
         <v>118</v>
       </c>
@@ -2588,7 +2620,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
         <v>121</v>
       </c>
@@ -2599,7 +2631,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>124</v>
       </c>
@@ -2610,7 +2642,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>127</v>
       </c>
@@ -2621,7 +2653,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>130</v>
       </c>
@@ -2632,7 +2664,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>133</v>
       </c>
